--- a/data_after/인구이동통계/변환후_인구이동통계_2022년_10월.xlsx
+++ b/data_after/인구이동통계/변환후_인구이동통계_2022년_10월.xlsx
@@ -613,14 +613,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>목천읍</t>
+          <t>성환읍</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11411</v>
+        <v>11355</v>
       </c>
       <c r="D2" t="n">
-        <v>24078</v>
+        <v>23587</v>
       </c>
       <c r="E2" t="n">
         <v>52</v>
@@ -629,31 +629,31 @@
         <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="H2" t="n">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
         <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -662,25 +662,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="S2" t="n">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="T2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U2" t="n">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="V2" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="W2" t="n">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -692,25 +692,25 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>-18</v>
       </c>
       <c r="AC2" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AE2" t="n">
-        <v>11434</v>
+        <v>11337</v>
       </c>
       <c r="AF2" t="n">
-        <v>24058</v>
+        <v>23547</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -721,104 +721,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>풍세면</t>
+          <t>성거읍</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2176</v>
+        <v>9647</v>
       </c>
       <c r="D3" t="n">
-        <v>4029</v>
+        <v>21041</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" t="n">
+        <v>76</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>196</v>
+      </c>
+      <c r="S3" t="n">
+        <v>102</v>
+      </c>
+      <c r="T3" t="n">
+        <v>94</v>
+      </c>
+      <c r="U3" t="n">
+        <v>120</v>
+      </c>
+      <c r="V3" t="n">
+        <v>19</v>
+      </c>
+      <c r="W3" t="n">
+        <v>57</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
-        <v>14</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>37</v>
-      </c>
-      <c r="S3" t="n">
-        <v>23</v>
-      </c>
-      <c r="T3" t="n">
-        <v>14</v>
-      </c>
-      <c r="U3" t="n">
-        <v>22</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-12</v>
+        <v>-31</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>2177</v>
+        <v>9654</v>
       </c>
       <c r="AF3" t="n">
-        <v>4017</v>
+        <v>21010</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="AH3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -829,44 +829,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>광덕면</t>
+          <t>직산읍</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2349</v>
+        <v>9855</v>
       </c>
       <c r="D4" t="n">
-        <v>4221</v>
+        <v>19946</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -878,26 +878,26 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="S4" t="n">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="T4" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="U4" t="n">
+        <v>100</v>
+      </c>
+      <c r="V4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>60</v>
+      </c>
+      <c r="X4" t="n">
         <v>12</v>
       </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>17</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7</v>
-      </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
@@ -908,25 +908,25 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>2342</v>
+        <v>9864</v>
       </c>
       <c r="AF4" t="n">
-        <v>4202</v>
+        <v>19947</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -937,104 +937,104 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>북면</t>
+          <t>입장면</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2499</v>
+        <v>4500</v>
       </c>
       <c r="D5" t="n">
-        <v>4316</v>
+        <v>8344</v>
       </c>
       <c r="E5" t="n">
+        <v>35</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H5" t="n">
+        <v>38</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29</v>
+      </c>
+      <c r="J5" t="n">
+        <v>28</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>38</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>58</v>
+      </c>
+      <c r="S5" t="n">
+        <v>33</v>
+      </c>
+      <c r="T5" t="n">
         <v>25</v>
       </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40</v>
-      </c>
-      <c r="H5" t="n">
-        <v>23</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>23</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>13</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
+        <v>31</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>22</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4488</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8349</v>
+      </c>
+      <c r="AG5" t="n">
         <v>34</v>
       </c>
-      <c r="S5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T5" t="n">
-        <v>14</v>
-      </c>
-      <c r="U5" t="n">
-        <v>13</v>
-      </c>
-      <c r="V5" t="n">
-        <v>7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>14</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>-17</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-18</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2482</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>4298</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>5</v>
-      </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1045,104 +1045,104 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>성남면</t>
+          <t>성정1동</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1623</v>
+        <v>9866</v>
       </c>
       <c r="D6" t="n">
-        <v>3069</v>
+        <v>17815</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="H6" t="n">
+        <v>128</v>
+      </c>
+      <c r="I6" t="n">
+        <v>94</v>
+      </c>
+      <c r="J6" t="n">
+        <v>127</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12</v>
+      </c>
+      <c r="L6" t="n">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>217</v>
+      </c>
+      <c r="S6" t="n">
+        <v>115</v>
+      </c>
+      <c r="T6" t="n">
+        <v>102</v>
+      </c>
+      <c r="U6" t="n">
+        <v>130</v>
+      </c>
+      <c r="V6" t="n">
+        <v>38</v>
+      </c>
+      <c r="W6" t="n">
+        <v>49</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>9859</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>17816</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>119</v>
+      </c>
+      <c r="AH6" t="n">
         <v>10</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>17</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>14</v>
-      </c>
-      <c r="S6" t="n">
-        <v>9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>11</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3</v>
-      </c>
-      <c r="X6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1622</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>3073</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1153,75 +1153,75 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>수신면</t>
+          <t>성정2동</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1324</v>
+        <v>18004</v>
       </c>
       <c r="D7" t="n">
-        <v>2258</v>
+        <v>25977</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>507</v>
+      </c>
+      <c r="H7" t="n">
+        <v>300</v>
+      </c>
+      <c r="I7" t="n">
+        <v>207</v>
+      </c>
+      <c r="J7" t="n">
+        <v>220</v>
+      </c>
+      <c r="K7" t="n">
+        <v>69</v>
+      </c>
+      <c r="L7" t="n">
+        <v>218</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" t="n">
-        <v>12</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>471</v>
+      </c>
+      <c r="S7" t="n">
+        <v>265</v>
+      </c>
+      <c r="T7" t="n">
+        <v>206</v>
+      </c>
+      <c r="U7" t="n">
+        <v>257</v>
+      </c>
+      <c r="V7" t="n">
+        <v>65</v>
+      </c>
+      <c r="W7" t="n">
+        <v>149</v>
+      </c>
+      <c r="X7" t="n">
         <v>10</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>20</v>
-      </c>
-      <c r="S7" t="n">
-        <v>13</v>
-      </c>
-      <c r="T7" t="n">
-        <v>7</v>
-      </c>
-      <c r="U7" t="n">
-        <v>7</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>4</v>
-      </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
@@ -1232,25 +1232,25 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4</v>
+        <v>33</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE7" t="n">
-        <v>1325</v>
+        <v>18042</v>
       </c>
       <c r="AF7" t="n">
-        <v>2254</v>
+        <v>26010</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1261,38 +1261,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>병천면</t>
+          <t>쌍용1동</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3676</v>
+        <v>6351</v>
       </c>
       <c r="D8" t="n">
-        <v>6344</v>
+        <v>13564</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="H8" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="I8" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="J8" t="n">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1310,28 +1310,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="S8" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="T8" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="U8" t="n">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W8" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1340,25 +1340,25 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6372</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13588</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AH8" t="n">
         <v>16</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>3692</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>6351</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1369,48 +1369,48 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>동면</t>
+          <t>쌍용2동</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1161</v>
+        <v>14810</v>
       </c>
       <c r="D9" t="n">
-        <v>2019</v>
+        <v>36679</v>
       </c>
       <c r="E9" t="n">
+        <v>44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22</v>
+      </c>
+      <c r="G9" t="n">
+        <v>281</v>
+      </c>
+      <c r="H9" t="n">
+        <v>132</v>
+      </c>
+      <c r="I9" t="n">
+        <v>149</v>
+      </c>
+      <c r="J9" t="n">
+        <v>121</v>
+      </c>
+      <c r="K9" t="n">
+        <v>39</v>
+      </c>
+      <c r="L9" t="n">
+        <v>121</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>9</v>
+        <v>335</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -1448,25 +1448,25 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>-15</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3</v>
+        <v>-54</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE9" t="n">
-        <v>1162</v>
+        <v>14795</v>
       </c>
       <c r="AF9" t="n">
-        <v>2016</v>
+        <v>36625</v>
       </c>
       <c r="AG9" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1477,104 +1477,104 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>중앙동</t>
+          <t>쌍용3동</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3167</v>
+        <v>8080</v>
       </c>
       <c r="D10" t="n">
-        <v>5329</v>
+        <v>18319</v>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="H10" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="J10" t="n">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L10" t="n">
+        <v>64</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>168</v>
+      </c>
+      <c r="S10" t="n">
+        <v>82</v>
+      </c>
+      <c r="T10" t="n">
+        <v>86</v>
+      </c>
+      <c r="U10" t="n">
+        <v>90</v>
+      </c>
+      <c r="V10" t="n">
+        <v>24</v>
+      </c>
+      <c r="W10" t="n">
+        <v>54</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8097</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>18312</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH10" t="n">
         <v>16</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>66</v>
-      </c>
-      <c r="S10" t="n">
-        <v>31</v>
-      </c>
-      <c r="T10" t="n">
-        <v>35</v>
-      </c>
-      <c r="U10" t="n">
-        <v>41</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3</v>
-      </c>
-      <c r="W10" t="n">
-        <v>22</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>-13</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>-19</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>3154</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>5310</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>39</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1585,47 +1585,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>문성동</t>
+          <t>백석동</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3667</v>
+        <v>14611</v>
       </c>
       <c r="D11" t="n">
-        <v>7119</v>
+        <v>39874</v>
       </c>
       <c r="E11" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H11" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I11" t="n">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J11" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1634,25 +1634,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="S11" t="n">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="T11" t="n">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="U11" t="n">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="V11" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="W11" t="n">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1664,25 +1664,25 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="n">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>3738</v>
+        <v>14639</v>
       </c>
       <c r="AF11" t="n">
-        <v>7330</v>
+        <v>39918</v>
       </c>
       <c r="AG11" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1693,44 +1693,44 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>원성1동</t>
+          <t>불당1동</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4218</v>
+        <v>13101</v>
       </c>
       <c r="D12" t="n">
-        <v>8497</v>
+        <v>32718</v>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="H12" t="n">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="I12" t="n">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="J12" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="L12" t="n">
+        <v>154</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>24</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -1742,28 +1742,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="S12" t="n">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="T12" t="n">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="U12" t="n">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="V12" t="n">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="W12" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1772,25 +1772,25 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="n">
-        <v>-5</v>
+        <v>99</v>
       </c>
       <c r="AD12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>4216</v>
+        <v>13125</v>
       </c>
       <c r="AF12" t="n">
-        <v>8492</v>
+        <v>32817</v>
       </c>
       <c r="AG12" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -1801,104 +1801,104 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>원성2동</t>
+          <t>불당2동</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4868</v>
+        <v>13458</v>
       </c>
       <c r="D13" t="n">
-        <v>9089</v>
+        <v>36594</v>
       </c>
       <c r="E13" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
+        <v>393</v>
+      </c>
+      <c r="H13" t="n">
+        <v>179</v>
+      </c>
+      <c r="I13" t="n">
+        <v>214</v>
+      </c>
+      <c r="J13" t="n">
+        <v>161</v>
+      </c>
+      <c r="K13" t="n">
         <v>61</v>
       </c>
-      <c r="H13" t="n">
-        <v>35</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26</v>
-      </c>
-      <c r="J13" t="n">
-        <v>44</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
       <c r="L13" t="n">
+        <v>171</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>20</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>277</v>
+      </c>
+      <c r="S13" t="n">
+        <v>130</v>
+      </c>
+      <c r="T13" t="n">
+        <v>147</v>
+      </c>
+      <c r="U13" t="n">
+        <v>97</v>
+      </c>
+      <c r="V13" t="n">
+        <v>67</v>
+      </c>
+      <c r="W13" t="n">
+        <v>113</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>56</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>132</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13514</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>36726</v>
+      </c>
+      <c r="AG13" t="n">
         <v>14</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>88</v>
-      </c>
-      <c r="S13" t="n">
-        <v>38</v>
-      </c>
-      <c r="T13" t="n">
-        <v>50</v>
-      </c>
-      <c r="U13" t="n">
-        <v>54</v>
-      </c>
-      <c r="V13" t="n">
-        <v>6</v>
-      </c>
-      <c r="W13" t="n">
-        <v>28</v>
-      </c>
-      <c r="X13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>4860</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>9057</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>43</v>
-      </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1909,104 +1909,104 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>봉명동</t>
+          <t>부성1동</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9221</v>
+        <v>24750</v>
       </c>
       <c r="D14" t="n">
-        <v>17802</v>
+        <v>49575</v>
       </c>
       <c r="E14" t="n">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G14" t="n">
-        <v>196</v>
+        <v>651</v>
       </c>
       <c r="H14" t="n">
-        <v>88</v>
+        <v>362</v>
       </c>
       <c r="I14" t="n">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="J14" t="n">
+        <v>291</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64</v>
+      </c>
+      <c r="L14" t="n">
+        <v>296</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>38</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>473</v>
+      </c>
+      <c r="S14" t="n">
+        <v>256</v>
+      </c>
+      <c r="T14" t="n">
+        <v>217</v>
+      </c>
+      <c r="U14" t="n">
+        <v>210</v>
+      </c>
+      <c r="V14" t="n">
+        <v>58</v>
+      </c>
+      <c r="W14" t="n">
+        <v>205</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
         <v>107</v>
       </c>
-      <c r="K14" t="n">
-        <v>28</v>
-      </c>
-      <c r="L14" t="n">
-        <v>61</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>218</v>
-      </c>
-      <c r="S14" t="n">
-        <v>119</v>
-      </c>
-      <c r="T14" t="n">
-        <v>99</v>
-      </c>
-      <c r="U14" t="n">
-        <v>133</v>
-      </c>
-      <c r="V14" t="n">
-        <v>33</v>
-      </c>
-      <c r="W14" t="n">
-        <v>52</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>-8</v>
-      </c>
       <c r="AC14" t="n">
-        <v>-27</v>
+        <v>206</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="AE14" t="n">
-        <v>9213</v>
+        <v>24857</v>
       </c>
       <c r="AF14" t="n">
-        <v>17775</v>
+        <v>49781</v>
       </c>
       <c r="AG14" t="n">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -2017,104 +2017,104 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>일봉동</t>
+          <t>부성2동</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8678</v>
+        <v>25126</v>
       </c>
       <c r="D15" t="n">
-        <v>22687</v>
+        <v>57522</v>
       </c>
       <c r="E15" t="n">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>93</v>
+        <v>517</v>
       </c>
       <c r="H15" t="n">
+        <v>292</v>
+      </c>
+      <c r="I15" t="n">
+        <v>225</v>
+      </c>
+      <c r="J15" t="n">
+        <v>215</v>
+      </c>
+      <c r="K15" t="n">
+        <v>54</v>
+      </c>
+      <c r="L15" t="n">
+        <v>248</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>46</v>
       </c>
-      <c r="I15" t="n">
-        <v>47</v>
-      </c>
-      <c r="J15" t="n">
-        <v>62</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>26</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>544</v>
+      </c>
+      <c r="S15" t="n">
+        <v>305</v>
+      </c>
+      <c r="T15" t="n">
+        <v>239</v>
+      </c>
+      <c r="U15" t="n">
+        <v>289</v>
+      </c>
+      <c r="V15" t="n">
+        <v>81</v>
+      </c>
+      <c r="W15" t="n">
+        <v>174</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
         <v>6</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>123</v>
-      </c>
-      <c r="S15" t="n">
-        <v>67</v>
-      </c>
-      <c r="T15" t="n">
-        <v>56</v>
-      </c>
-      <c r="U15" t="n">
-        <v>65</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="AE15" t="n">
+        <v>25123</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>57531</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AH15" t="n">
         <v>16</v>
-      </c>
-      <c r="W15" t="n">
-        <v>42</v>
-      </c>
-      <c r="X15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>-36</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>8677</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>22651</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -2125,47 +2125,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>신방동</t>
+          <t>목천읍</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18677</v>
+        <v>11411</v>
       </c>
       <c r="D16" t="n">
-        <v>43864</v>
+        <v>24078</v>
       </c>
       <c r="E16" t="n">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F16" t="n">
         <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>357</v>
+        <v>215</v>
       </c>
       <c r="H16" t="n">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="I16" t="n">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="J16" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="L16" t="n">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2174,25 +2174,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>346</v>
+        <v>221</v>
       </c>
       <c r="S16" t="n">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="T16" t="n">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="U16" t="n">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="V16" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="W16" t="n">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>18</v>
+        <v>-20</v>
       </c>
       <c r="AD16" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
-        <v>18701</v>
+        <v>11434</v>
       </c>
       <c r="AF16" t="n">
-        <v>43882</v>
+        <v>24058</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="AH16" t="n">
         <v>22</v>
@@ -2233,47 +2233,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>청룡동</t>
+          <t>풍세면</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21401</v>
+        <v>2176</v>
       </c>
       <c r="D17" t="n">
-        <v>54134</v>
+        <v>4029</v>
       </c>
       <c r="E17" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>362</v>
+        <v>29</v>
       </c>
       <c r="H17" t="n">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="J17" t="n">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="K17" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2282,25 +2282,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>359</v>
+        <v>37</v>
       </c>
       <c r="S17" t="n">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="T17" t="n">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="U17" t="n">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="V17" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2312,25 +2312,25 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
-        <v>29</v>
+        <v>-12</v>
       </c>
       <c r="AD17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>21428</v>
+        <v>2177</v>
       </c>
       <c r="AF17" t="n">
-        <v>54163</v>
+        <v>4017</v>
       </c>
       <c r="AG17" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2341,74 +2341,74 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>신안동</t>
+          <t>광덕면</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18860</v>
+        <v>2349</v>
       </c>
       <c r="D18" t="n">
-        <v>36800</v>
+        <v>4221</v>
       </c>
       <c r="E18" t="n">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>387</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>31</v>
+      </c>
+      <c r="S18" t="n">
+        <v>18</v>
+      </c>
+      <c r="T18" t="n">
+        <v>13</v>
+      </c>
+      <c r="U18" t="n">
+        <v>12</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
         <v>17</v>
       </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>402</v>
-      </c>
-      <c r="S18" t="n">
-        <v>194</v>
-      </c>
-      <c r="T18" t="n">
-        <v>208</v>
-      </c>
-      <c r="U18" t="n">
-        <v>190</v>
-      </c>
-      <c r="V18" t="n">
-        <v>41</v>
-      </c>
-      <c r="W18" t="n">
-        <v>171</v>
-      </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2420,25 +2420,25 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>28</v>
+        <v>-7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5</v>
+        <v>-19</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>18888</v>
+        <v>2342</v>
       </c>
       <c r="AF18" t="n">
-        <v>36795</v>
+        <v>4202</v>
       </c>
       <c r="AG18" t="n">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="AH18" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -2449,47 +2449,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>성환읍</t>
+          <t>북면</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11355</v>
+        <v>2499</v>
       </c>
       <c r="D19" t="n">
-        <v>23587</v>
+        <v>4316</v>
       </c>
       <c r="E19" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="H19" t="n">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="I19" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J19" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K19" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2498,28 +2498,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="S19" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="T19" t="n">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="U19" t="n">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="V19" t="n">
+        <v>7</v>
+      </c>
+      <c r="W19" t="n">
         <v>14</v>
       </c>
-      <c r="W19" t="n">
-        <v>93</v>
-      </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2528,25 +2528,25 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
+        <v>-17</v>
+      </c>
+      <c r="AC19" t="n">
         <v>-18</v>
       </c>
-      <c r="AC19" t="n">
-        <v>-40</v>
-      </c>
       <c r="AD19" t="n">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="AE19" t="n">
-        <v>11337</v>
+        <v>2482</v>
       </c>
       <c r="AF19" t="n">
-        <v>23547</v>
+        <v>4298</v>
       </c>
       <c r="AG19" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2557,74 +2557,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>성거읍</t>
+          <t>성남면</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9647</v>
+        <v>1623</v>
       </c>
       <c r="D20" t="n">
-        <v>21041</v>
+        <v>3069</v>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="H20" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>14</v>
+      </c>
+      <c r="S20" t="n">
+        <v>9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5</v>
+      </c>
+      <c r="U20" t="n">
         <v>11</v>
       </c>
-      <c r="L20" t="n">
-        <v>76</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>196</v>
-      </c>
-      <c r="S20" t="n">
-        <v>102</v>
-      </c>
-      <c r="T20" t="n">
-        <v>94</v>
-      </c>
-      <c r="U20" t="n">
-        <v>120</v>
-      </c>
       <c r="V20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1622</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>3073</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>3</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>9654</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>21010</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>43</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2665,104 +2665,104 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>직산읍</t>
+          <t>수신면</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9855</v>
+        <v>1324</v>
       </c>
       <c r="D21" t="n">
-        <v>19946</v>
+        <v>2258</v>
       </c>
       <c r="E21" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="K21" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>20</v>
+      </c>
+      <c r="S21" t="n">
+        <v>13</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>185</v>
-      </c>
-      <c r="S21" t="n">
-        <v>115</v>
-      </c>
-      <c r="T21" t="n">
-        <v>70</v>
-      </c>
-      <c r="U21" t="n">
-        <v>100</v>
-      </c>
-      <c r="V21" t="n">
-        <v>25</v>
-      </c>
-      <c r="W21" t="n">
-        <v>60</v>
-      </c>
-      <c r="X21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>9</v>
-      </c>
       <c r="AC21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1325</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>2254</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH21" t="n">
         <v>1</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>9864</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>19947</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -2773,44 +2773,44 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>입장면</t>
+          <t>병천면</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4500</v>
+        <v>3676</v>
       </c>
       <c r="D22" t="n">
-        <v>8344</v>
+        <v>6344</v>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H22" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J22" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>42</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>38</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2825,52 +2825,52 @@
         <v>58</v>
       </c>
       <c r="S22" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U22" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="V22" t="n">
+        <v>10</v>
+      </c>
+      <c r="W22" t="n">
+        <v>20</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3692</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>6351</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH22" t="n">
         <v>5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>22</v>
-      </c>
-      <c r="X22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>4488</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>8349</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2881,77 +2881,77 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>성정1동</t>
+          <t>동면</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9866</v>
+        <v>1161</v>
       </c>
       <c r="D23" t="n">
-        <v>17815</v>
+        <v>2019</v>
       </c>
       <c r="E23" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="H23" t="n">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="I23" t="n">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>9</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="n">
         <v>4</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>217</v>
-      </c>
-      <c r="S23" t="n">
-        <v>115</v>
-      </c>
-      <c r="T23" t="n">
-        <v>102</v>
-      </c>
       <c r="U23" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="V23" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -2960,25 +2960,25 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1162</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH23" t="n">
         <v>1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>9859</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>17816</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>119</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2989,47 +2989,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>성정2동</t>
+          <t>중앙동</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18004</v>
+        <v>3167</v>
       </c>
       <c r="D24" t="n">
-        <v>25977</v>
+        <v>5329</v>
       </c>
       <c r="E24" t="n">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="H24" t="n">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="I24" t="n">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="J24" t="n">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="K24" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -3038,25 +3038,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>471</v>
+        <v>66</v>
       </c>
       <c r="S24" t="n">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="T24" t="n">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="U24" t="n">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="V24" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="X24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -3068,25 +3068,25 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>38</v>
+        <v>-13</v>
       </c>
       <c r="AC24" t="n">
-        <v>33</v>
+        <v>-19</v>
       </c>
       <c r="AD24" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>18042</v>
+        <v>3154</v>
       </c>
       <c r="AF24" t="n">
-        <v>26010</v>
+        <v>5310</v>
       </c>
       <c r="AG24" t="n">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -3097,44 +3097,44 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>쌍용1동</t>
+          <t>문성동</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6351</v>
+        <v>3667</v>
       </c>
       <c r="D25" t="n">
-        <v>13564</v>
+        <v>7119</v>
       </c>
       <c r="E25" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
+        <v>256</v>
+      </c>
+      <c r="H25" t="n">
+        <v>127</v>
+      </c>
+      <c r="I25" t="n">
+        <v>129</v>
+      </c>
+      <c r="J25" t="n">
         <v>158</v>
       </c>
-      <c r="H25" t="n">
-        <v>89</v>
-      </c>
-      <c r="I25" t="n">
-        <v>69</v>
-      </c>
-      <c r="J25" t="n">
-        <v>99</v>
-      </c>
       <c r="K25" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L25" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3146,28 +3146,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="S25" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="T25" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="U25" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="W25" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="X25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3176,25 +3176,25 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="AC25" t="n">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="AD25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>6372</v>
+        <v>3738</v>
       </c>
       <c r="AF25" t="n">
-        <v>13588</v>
+        <v>7330</v>
       </c>
       <c r="AG25" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -3205,77 +3205,77 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>쌍용2동</t>
+          <t>원성1동</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14810</v>
+        <v>4218</v>
       </c>
       <c r="D26" t="n">
-        <v>36679</v>
+        <v>8497</v>
       </c>
       <c r="E26" t="n">
+        <v>54</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>82</v>
+      </c>
+      <c r="H26" t="n">
+        <v>50</v>
+      </c>
+      <c r="I26" t="n">
+        <v>32</v>
+      </c>
+      <c r="J26" t="n">
+        <v>51</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>24</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>87</v>
+      </c>
+      <c r="S26" t="n">
+        <v>43</v>
+      </c>
+      <c r="T26" t="n">
         <v>44</v>
       </c>
-      <c r="F26" t="n">
+      <c r="U26" t="n">
+        <v>52</v>
+      </c>
+      <c r="V26" t="n">
+        <v>13</v>
+      </c>
+      <c r="W26" t="n">
         <v>22</v>
       </c>
-      <c r="G26" t="n">
-        <v>281</v>
-      </c>
-      <c r="H26" t="n">
-        <v>132</v>
-      </c>
-      <c r="I26" t="n">
-        <v>149</v>
-      </c>
-      <c r="J26" t="n">
-        <v>121</v>
-      </c>
-      <c r="K26" t="n">
-        <v>39</v>
-      </c>
-      <c r="L26" t="n">
-        <v>121</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>12</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>335</v>
-      </c>
-      <c r="S26" t="n">
-        <v>169</v>
-      </c>
-      <c r="T26" t="n">
-        <v>166</v>
-      </c>
-      <c r="U26" t="n">
-        <v>164</v>
-      </c>
-      <c r="V26" t="n">
-        <v>54</v>
-      </c>
-      <c r="W26" t="n">
-        <v>117</v>
-      </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3284,25 +3284,25 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-54</v>
+        <v>-5</v>
       </c>
       <c r="AD26" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE26" t="n">
-        <v>14795</v>
+        <v>4216</v>
       </c>
       <c r="AF26" t="n">
-        <v>36625</v>
+        <v>8492</v>
       </c>
       <c r="AG26" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -3313,47 +3313,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>쌍용3동</t>
+          <t>원성2동</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8080</v>
+        <v>4868</v>
       </c>
       <c r="D27" t="n">
-        <v>18319</v>
+        <v>9089</v>
       </c>
       <c r="E27" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="H27" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I27" t="n">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="J27" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K27" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -3362,25 +3362,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="S27" t="n">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="T27" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="U27" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="V27" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="W27" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="X27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>-8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7</v>
+        <v>-32</v>
       </c>
       <c r="AD27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>8097</v>
+        <v>4860</v>
       </c>
       <c r="AF27" t="n">
-        <v>18312</v>
+        <v>9057</v>
       </c>
       <c r="AG27" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -3421,47 +3421,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>백석동</t>
+          <t>봉명동</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>14611</v>
+        <v>9221</v>
       </c>
       <c r="D28" t="n">
-        <v>39874</v>
+        <v>17802</v>
       </c>
       <c r="E28" t="n">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="H28" t="n">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="I28" t="n">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J28" t="n">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="K28" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L28" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3470,22 +3470,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="S28" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T28" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="U28" t="n">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="V28" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="W28" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="X28" t="n">
         <v>9</v>
@@ -3500,25 +3500,25 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>28</v>
+        <v>-8</v>
       </c>
       <c r="AC28" t="n">
-        <v>44</v>
+        <v>-27</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>14639</v>
+        <v>9213</v>
       </c>
       <c r="AF28" t="n">
-        <v>39918</v>
+        <v>17775</v>
       </c>
       <c r="AG28" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -3529,74 +3529,74 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>불당1동</t>
+          <t>일봉동</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>13101</v>
+        <v>8678</v>
       </c>
       <c r="D29" t="n">
-        <v>32718</v>
+        <v>22687</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F29" t="n">
+        <v>22</v>
+      </c>
+      <c r="G29" t="n">
+        <v>93</v>
+      </c>
+      <c r="H29" t="n">
+        <v>46</v>
+      </c>
+      <c r="I29" t="n">
+        <v>47</v>
+      </c>
+      <c r="J29" t="n">
+        <v>62</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>26</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>123</v>
+      </c>
+      <c r="S29" t="n">
+        <v>67</v>
+      </c>
+      <c r="T29" t="n">
+        <v>56</v>
+      </c>
+      <c r="U29" t="n">
+        <v>65</v>
+      </c>
+      <c r="V29" t="n">
+        <v>16</v>
+      </c>
+      <c r="W29" t="n">
         <v>42</v>
       </c>
-      <c r="G29" t="n">
-        <v>383</v>
-      </c>
-      <c r="H29" t="n">
-        <v>201</v>
-      </c>
-      <c r="I29" t="n">
-        <v>182</v>
-      </c>
-      <c r="J29" t="n">
-        <v>151</v>
-      </c>
-      <c r="K29" t="n">
-        <v>78</v>
-      </c>
-      <c r="L29" t="n">
-        <v>154</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>24</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>300</v>
-      </c>
-      <c r="S29" t="n">
-        <v>145</v>
-      </c>
-      <c r="T29" t="n">
-        <v>155</v>
-      </c>
-      <c r="U29" t="n">
-        <v>132</v>
-      </c>
-      <c r="V29" t="n">
-        <v>78</v>
-      </c>
-      <c r="W29" t="n">
-        <v>90</v>
-      </c>
       <c r="X29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
         <v>2</v>
@@ -3608,25 +3608,25 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="AC29" t="n">
-        <v>99</v>
+        <v>-36</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE29" t="n">
-        <v>13125</v>
+        <v>8677</v>
       </c>
       <c r="AF29" t="n">
-        <v>32817</v>
+        <v>22651</v>
       </c>
       <c r="AG29" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -3637,44 +3637,44 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>불당2동</t>
+          <t>신방동</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>13458</v>
+        <v>18677</v>
       </c>
       <c r="D30" t="n">
-        <v>36594</v>
+        <v>43864</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="H30" t="n">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I30" t="n">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="J30" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K30" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L30" t="n">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3686,25 +3686,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="S30" t="n">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="T30" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="U30" t="n">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="V30" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="W30" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="X30" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3716,25 +3716,25 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="AC30" t="n">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="AE30" t="n">
-        <v>13514</v>
+        <v>18701</v>
       </c>
       <c r="AF30" t="n">
-        <v>36726</v>
+        <v>43882</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -3745,74 +3745,74 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>부성1동</t>
+          <t>청룡동</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24750</v>
+        <v>21401</v>
       </c>
       <c r="D31" t="n">
-        <v>49575</v>
+        <v>54134</v>
       </c>
       <c r="E31" t="n">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="F31" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>651</v>
+        <v>362</v>
       </c>
       <c r="H31" t="n">
-        <v>362</v>
+        <v>188</v>
       </c>
       <c r="I31" t="n">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="J31" t="n">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="K31" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="L31" t="n">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O31" t="n">
         <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>473</v>
+        <v>359</v>
       </c>
       <c r="S31" t="n">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="T31" t="n">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="U31" t="n">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="V31" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W31" t="n">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3821,28 +3821,28 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="AC31" t="n">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="AD31" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE31" t="n">
-        <v>24857</v>
+        <v>21428</v>
       </c>
       <c r="AF31" t="n">
-        <v>49781</v>
+        <v>54163</v>
       </c>
       <c r="AG31" t="n">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="AH31" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -3853,47 +3853,47 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>부성2동</t>
+          <t>신안동</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25126</v>
+        <v>18860</v>
       </c>
       <c r="D32" t="n">
-        <v>57522</v>
+        <v>36800</v>
       </c>
       <c r="E32" t="n">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G32" t="n">
-        <v>517</v>
+        <v>387</v>
       </c>
       <c r="H32" t="n">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="I32" t="n">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="J32" t="n">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="K32" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="L32" t="n">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3902,28 +3902,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>544</v>
+        <v>402</v>
       </c>
       <c r="S32" t="n">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="T32" t="n">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="U32" t="n">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="V32" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W32" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="X32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3932,25 +3932,25 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>-3</v>
+        <v>28</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="AD32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>25123</v>
+        <v>18888</v>
       </c>
       <c r="AF32" t="n">
-        <v>57531</v>
+        <v>36795</v>
       </c>
       <c r="AG32" t="n">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AH32" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
